--- a/server/public/Excel/7.xlsx
+++ b/server/public/Excel/7.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>ทำงานอยู่</t>
   </si>
   <si>
     <t>นางสาววาสนา</t>
@@ -546,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -571,25 +574,28 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -597,25 +603,28 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -623,51 +632,57 @@
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -675,25 +690,28 @@
       <c r="H6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -701,25 +719,28 @@
       <c r="H7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -727,31 +748,37 @@
       <c r="H8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
